--- a/XTT data - EV Experiment/EV Experiment XTT Assays.xlsx
+++ b/XTT data - EV Experiment/EV Experiment XTT Assays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/clozano_uchicago_edu/Documents/College/internships/Renal Diseases/data/EV Experiment 4-2025/Copy for Github/XTT Assays/EV Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchicagoedu-my.sharepoint.com/personal/clozano_uchicago_edu/Documents/College/internships/Renal Diseases/data/2024/XTT/EV Experiment 4-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1697" documentId="8_{313F682C-816C-4341-BD9F-6296F97FCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F181297-F6B6-420E-B232-6E684020351B}"/>
+  <xr:revisionPtr revIDLastSave="1696" documentId="8_{313F682C-816C-4341-BD9F-6296F97FCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E37D3A-B0CB-4FAD-9020-1EC1F2F1C81E}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{7004FC09-E616-41FE-8413-71351939002C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{7004FC09-E616-41FE-8413-71351939002C}"/>
   </bookViews>
   <sheets>
     <sheet name="0hr" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="48hr" sheetId="8" r:id="rId3"/>
     <sheet name="72hr" sheetId="9" r:id="rId4"/>
     <sheet name="All corrected absorbances" sheetId="7" r:id="rId5"/>
+    <sheet name="Fold changes (from R code)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
   <si>
     <t>BLK</t>
   </si>
@@ -52,6 +53,24 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Confidence interval</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean log2-fold change</t>
+  </si>
+  <si>
+    <t>log2-fold change confidence interval calculated via Wilcoxon signed-rank test, which assumes the log2-fold change measurements have symmetric, but not necessarily normal, distributions</t>
+  </si>
+  <si>
+    <t>α</t>
   </si>
   <si>
     <t>Cells</t>
@@ -122,6 +141,27 @@
     <t>Pt9
 100</t>
   </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Dose (μg/mL)</t>
+  </si>
+  <si>
+    <t>No EVs</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>PKD2 truncating</t>
+  </si>
+  <si>
+    <t>PKD1 non-truncating</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -175,12 +215,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="34">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -230,6 +279,108 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,6 +455,37 @@
       <left style="thick">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -321,6 +503,37 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -359,35 +572,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,24 +631,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -495,6 +812,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,494 +1137,494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29548556-178E-4A16-B642-AABB059A30A7}">
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="20" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5">
+    <row r="1" spans="2:15" s="30" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="9">
         <v>490</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="D1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="7">
+      <c r="C2" s="11">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>0.81</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>0.82199999999999995</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="12">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="12">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="12">
         <v>0.79600000000000004</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <v>0.78</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="12">
         <v>0.76800000000000002</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="12">
         <v>0.77</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="12">
         <v>0.72199999999999998</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="13">
         <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="7">
+      <c r="C3" s="11">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>0.84799999999999998</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>0.80100000000000005</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <v>0.70499999999999996</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="12">
         <v>0.77700000000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <v>0.79600000000000004</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <v>0.75900000000000001</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="12">
         <v>0.73</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="12">
         <v>0.748</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="13">
         <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <v>0.90500000000000003</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>0.80700000000000005</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <v>0.72199999999999998</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12">
         <v>0.78400000000000003</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <v>0.78100000000000003</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <v>0.77900000000000003</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="12">
         <v>0.77800000000000002</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="12">
         <v>0.70899999999999996</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="13">
         <v>0.69</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>0.88700000000000001</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>0.72199999999999998</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>0.85399999999999998</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>0.79700000000000004</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>0.76200000000000001</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="12">
         <v>0.73799999999999999</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="12">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="13">
         <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>0.84199999999999997</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>0.83499999999999996</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>0.72399999999999998</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>0.78400000000000003</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="12">
         <v>0.73599999999999999</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="12">
         <v>0.69899999999999995</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="13">
         <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="15">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>0.91400000000000003</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="15">
         <v>0.80400000000000005</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>0.78500000000000003</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>0.72499999999999998</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>0.74099999999999999</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <v>0.748</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22">
+      <c r="C8" s="32">
         <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="23">
+      <c r="C9" s="33">
         <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>630</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="18">
         <v>4.7E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="18">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="18">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="18">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="18">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="18">
         <v>4.7E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="18">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="19">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C15" s="7">
+      <c r="C15" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7">
+      <c r="C16" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="12">
         <v>4.7E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="10">
+      <c r="C18" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1594,7 +1915,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29">
@@ -1613,7 +1934,7 @@
         <f t="shared" si="3"/>
         <v>0.53049999999999997</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="23">
         <f t="shared" si="3"/>
         <v>0.37649999999999989</v>
       </c>
@@ -1659,7 +1980,7 @@
         <f t="shared" si="4"/>
         <v>0.52749999999999986</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="23">
         <f t="shared" si="4"/>
         <v>0.37549999999999989</v>
       </c>
@@ -1705,7 +2026,7 @@
         <f t="shared" si="4"/>
         <v>0.58850000000000002</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="23">
         <f t="shared" si="4"/>
         <v>0.3914999999999999</v>
       </c>
@@ -1751,7 +2072,7 @@
         <f t="shared" si="4"/>
         <v>0.55349999999999988</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="23">
         <f t="shared" si="4"/>
         <v>0.3914999999999999</v>
       </c>
@@ -1797,7 +2118,7 @@
         <f t="shared" si="4"/>
         <v>0.53049999999999997</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="23">
         <f t="shared" si="4"/>
         <v>0.39449999999999991</v>
       </c>
@@ -1843,7 +2164,7 @@
         <f t="shared" si="4"/>
         <v>0.58450000000000002</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="23">
         <f t="shared" si="4"/>
         <v>0.40149999999999991</v>
       </c>
@@ -1899,7 +2220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:M7 C2:C9 D11:M16 C11:C18">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1917,507 +2238,507 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5">
+      <c r="B1" s="9">
         <v>490</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="D1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="H1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="7">
+      <c r="C2" s="11">
         <v>0.308</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="12">
         <v>0.52600000000000002</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="12">
         <v>0.55600000000000005</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="12">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <v>0.625</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="12">
         <v>0.68600000000000005</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="12">
         <v>0.56299999999999994</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="13">
         <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="7">
+      <c r="C3" s="11">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>0.505</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <v>0.51200000000000001</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <v>0.53300000000000003</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="12">
         <v>0.52100000000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <v>0.58399999999999996</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <v>0.64600000000000002</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="12">
         <v>0.52100000000000002</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="12">
         <v>0.55100000000000005</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="13">
         <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>0.29699999999999999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>0.51800000000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <v>0.49299999999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <v>0.52</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="12">
         <v>0.47</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <v>0.629</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="12">
         <v>0.49399999999999999</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="12">
         <v>0.52600000000000002</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="13">
         <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <v>0.497</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <v>0.501</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="12">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>0.629</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="12">
         <v>0.47799999999999998</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="12">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="13">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>0.52</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>0.52</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>0.46700000000000003</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>0.61899999999999999</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>0.61799999999999999</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="12">
         <v>0.46100000000000002</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="12">
         <v>0.52</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="13">
         <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="15">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>0.502</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="15">
         <v>0.47</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>0.59199999999999997</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>0.498</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <v>0.53200000000000003</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22">
+      <c r="C8" s="32">
         <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="23">
+      <c r="C9" s="33">
         <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>630</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="18">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="18">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="18">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="19">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="12">
         <v>0.04</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>0.04</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="13">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="12">
         <v>0.04</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>0.04</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>0.04</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="13">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C15" s="7">
+      <c r="C15" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="12">
         <v>0.04</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>0.04</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="13">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7">
+      <c r="C16" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>0.04</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="12">
         <v>0.04</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="10">
+      <c r="C18" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C20">
@@ -2708,7 +3029,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29">
@@ -2996,6 +3317,1127 @@
       <c r="C36">
         <f t="shared" si="4"/>
         <v>2.375000000000016E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C8:C9 C17:C18">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M7">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:M16">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:M34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A5213B-810F-4023-B0D8-1F6A0A86459D}">
+  <dimension ref="B1:O36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="10" customWidth="1"/>
+    <col min="3" max="13" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="9">
+        <v>490</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C2" s="11">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.378</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.374</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C3" s="11">
+        <v>0.309</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.374</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.438</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C4" s="11">
+        <v>0.308</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.433</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C5" s="11">
+        <v>0.312</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C6" s="11">
+        <v>0.312</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="11">
+        <v>0.312</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.379</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="32">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="33">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="9">
+        <v>630</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="K11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L11" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C12" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C13" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M13" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C14" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M14" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C15" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H15" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M15" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K16" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M16" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>C2-C11</f>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:M20" si="0">D2-D11</f>
+        <v>0.316</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.36700000000000005</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.41300000000000003</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0.36700000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <f t="shared" ref="C21:M27" si="1">C3-C12</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.312</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.30600000000000005</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.313</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.36400000000000005</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.316</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.314</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.314</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.35300000000000004</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.313</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.36700000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.307</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.34400000000000003</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.35500000000000004</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.36500000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.35500000000000004</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.35900000000000004</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.41900000000000004</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.30600000000000005</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.28200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.29600000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>C20-AVERAGE($C$20:$C$27)</f>
+        <v>7.6249999999999929E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:M29" si="2">D20-AVERAGE($C$20:$C$27)</f>
+        <v>3.5624999999999962E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>4.7624999999999973E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>4.2624999999999968E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>6.0624999999999984E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>4.0624999999999967E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>8.6625000000000008E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0.13262499999999999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>2.9624999999999957E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>5.4624999999999979E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>8.6625000000000008E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C30">
+        <f t="shared" ref="C30:M36" si="3">C21-AVERAGE($C$20:$C$27)</f>
+        <v>-6.3750000000000195E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>2.9624999999999957E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>4.2624999999999968E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>3.1624999999999959E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>5.562499999999998E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>2.5625000000000009E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>7.1624999999999994E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.11862499999999998</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>3.262499999999996E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>4.1624999999999968E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>9.4624999999999959E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>-8.3750000000000213E-3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>4.9624999999999975E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>4.0624999999999967E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>2.9624999999999957E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>4.9624999999999975E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>2.9624999999999957E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>8.3625000000000005E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.11262499999999998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>1.9625000000000004E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>4.462499999999997E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>9.1624999999999956E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>-3.3750000000000169E-3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>3.5624999999999962E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>4.5624999999999971E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>3.362499999999996E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>6.1624999999999985E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>3.362499999999996E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>7.2624999999999995E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.15062499999999995</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>3.262499999999996E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>4.8624999999999974E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>8.6625000000000008E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>-3.3750000000000169E-3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>2.6624999999999954E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>6.1624999999999985E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>4.5624999999999971E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>6.3624999999999987E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>4.0624999999999967E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>7.4624999999999997E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.12962499999999999</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>1.4624999999999999E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>5.0624999999999976E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>8.4625000000000006E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>-3.3750000000000169E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>2.9624999999999957E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>7.4624999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>6.9624999999999992E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>6.2624999999999986E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>6.0624999999999984E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>7.8625E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.138625</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>2.5625000000000009E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>6.1624999999999985E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>9.2624999999999957E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>1.6249999999999876E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>1.5625E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3029,1094 +4471,1365 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A5213B-810F-4023-B0D8-1F6A0A86459D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B9E824-2ED6-41FE-B971-32656C8B9C59}">
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5">
+      <c r="B1" s="9">
         <v>490</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="D1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="H1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="7">
+      <c r="C2" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C3" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.307</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.312</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.309</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C4" s="11">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.312</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.311</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C5" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.315</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.309</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C6" s="11">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.307</v>
+      </c>
+      <c r="G6" s="12">
         <v>0.32300000000000001</v>
       </c>
-      <c r="D2" s="8">
+      <c r="H6" s="12">
+        <v>0.314</v>
+      </c>
+      <c r="I6" s="12">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E2" s="8">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="J6" s="12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.318</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="11">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.309</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.318</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="32">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.47</v>
+      </c>
+      <c r="E8">
+        <v>0.33</v>
+      </c>
+      <c r="F8">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="33">
+        <v>0.373</v>
+      </c>
+      <c r="D9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.33</v>
+      </c>
+      <c r="F9">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H9">
         <v>0.36</v>
       </c>
-      <c r="G2" s="8">
-        <v>0.378</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0.374</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="7">
-        <v>0.309</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.374</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.438</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C4" s="7">
-        <v>0.308</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.433</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="7">
-        <v>0.312</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="7">
-        <v>0.312</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="I9">
         <v>0.33200000000000002</v>
       </c>
-      <c r="L6" s="8">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="7">
-        <v>0.312</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.379</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="23">
-        <v>0.33200000000000002</v>
+      <c r="J9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>630</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K11" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L11" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C12" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J12" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="K12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C13" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G13" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="H13" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I13" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="J13" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K13" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H11" s="14">
+      <c r="L13" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I11" s="14">
+      <c r="M13" s="13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C14" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D14" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="E14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M14" s="13">
         <v>0.04</v>
       </c>
-      <c r="K11" s="14">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C15" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D15" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L11" s="14">
+      <c r="E15" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J15" s="12">
         <v>3.9E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="K15" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K16" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L16" s="12">
         <v>3.9E-2</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C12" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="M16" s="13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G17" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="H17" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F18">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="G18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L18">
         <v>3.9E-2</v>
       </c>
-      <c r="K12" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M12" s="9">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C13" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I13" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M13" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C14" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M14" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C15" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H15" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M15" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K16" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="L16" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M16" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="10">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="M18">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C20">
         <f>C2-C11</f>
-        <v>0.28800000000000003</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:M20" si="0">D2-D11</f>
-        <v>0.316</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.32800000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>0.32300000000000001</v>
+        <v>0.28700000000000003</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.34100000000000003</v>
+        <v>0.308</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.32100000000000001</v>
+        <v>0.28700000000000003</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.36700000000000005</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>0.41300000000000003</v>
+        <v>0.378</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.33500000000000002</v>
+        <v>0.313</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.36700000000000005</v>
+        <v>0.35700000000000004</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C21">
         <f t="shared" ref="C21:M27" si="1">C3-C12</f>
-        <v>0.27400000000000002</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.32300000000000001</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.312</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.33600000000000002</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.30600000000000005</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
         <v>0.35200000000000004</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0.39900000000000002</v>
-      </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>0.313</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.32200000000000001</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.27200000000000002</v>
+        <v>0.30100000000000005</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.32100000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0.36400000000000005</v>
+        <v>0.308</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.39300000000000002</v>
+        <v>0.35600000000000004</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0.32500000000000001</v>
+        <v>0.29300000000000004</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.372</v>
+        <v>0.33700000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C23">
         <f t="shared" si="1"/>
+        <v>0.31499999999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
         <v>0.27700000000000002</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.316</v>
-      </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.32600000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.314</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.34200000000000003</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.314</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0.35300000000000004</v>
+        <v>0.313</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.43099999999999999</v>
+        <v>0.35900000000000004</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.313</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.32900000000000001</v>
+        <v>0.29300000000000004</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.36700000000000005</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C24">
         <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
         <v>0.27700000000000002</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.307</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.34400000000000003</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>0.32100000000000001</v>
-      </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>0.35500000000000004</v>
+        <v>0.317</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0.41000000000000003</v>
+        <v>0.34800000000000003</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>0.29500000000000004</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.33100000000000002</v>
+        <v>0.29700000000000004</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.318</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
         <v>0.36500000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.31</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.35500000000000004</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0.35900000000000004</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0.41900000000000004</v>
-      </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>0.30600000000000005</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0.34200000000000003</v>
+        <v>0.311</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>0.373</v>
+        <v>0.34600000000000003</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.28200000000000003</v>
+        <v>0.315</v>
+      </c>
+      <c r="D26" s="60">
+        <f t="shared" ref="D26:M26" si="2">D8-D17</f>
+        <v>0.30499999999999994</v>
+      </c>
+      <c r="E26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="F26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="G26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="H26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.28400000000000003</v>
+      </c>
+      <c r="I26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.28700000000000003</v>
+      </c>
+      <c r="J26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="K26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="L26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="M26" s="61">
+        <f t="shared" si="2"/>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.29600000000000004</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D27" s="62">
+        <f t="shared" ref="D27:M27" si="3">D9-D18</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="F27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="G27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29800000000000004</v>
+      </c>
+      <c r="H27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.307</v>
+      </c>
+      <c r="I27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="J27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29300000000000004</v>
+      </c>
+      <c r="K27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="L27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="M27" s="63">
+        <f t="shared" si="3"/>
+        <v>0.316</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29">
         <f>C20-AVERAGE($C$20:$C$27)</f>
-        <v>7.6249999999999929E-3</v>
+        <v>2.3125000000000007E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:M29" si="2">D20-AVERAGE($C$20:$C$27)</f>
-        <v>3.5624999999999962E-2</v>
+        <f t="shared" ref="D29:M29" si="4">D20-AVERAGE($C$20:$C$27)</f>
+        <v>-3.2874999999999988E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>4.7624999999999973E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.2874999999999996E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>4.2624999999999968E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.8874999999999984E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>6.0624999999999984E-2</v>
+        <f t="shared" si="4"/>
+        <v>-7.8750000000000209E-3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>4.0624999999999967E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.8874999999999984E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>8.6625000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1249999999999889E-3</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>0.13262499999999999</v>
+        <f t="shared" si="4"/>
+        <v>6.2124999999999986E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>2.9624999999999957E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.0874999999999986E-2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
-        <v>5.4624999999999979E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.8750000000000164E-3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
-        <v>8.6625000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.1125000000000023E-2</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C30">
-        <f t="shared" ref="C30:M36" si="3">C21-AVERAGE($C$20:$C$27)</f>
-        <v>-6.3750000000000195E-3</v>
+        <f t="shared" ref="C30:M36" si="5">C21-AVERAGE($C$20:$C$27)</f>
+        <v>-1.0874999999999968E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>2.9624999999999957E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0875000000000004E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>4.2624999999999968E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.6875E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>3.1624999999999959E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.4874999999999998E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>5.562499999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.7874999999999983E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>2.5625000000000009E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.9874999999999994E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>7.1624999999999994E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.1874999999999969E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
-        <v>0.11862499999999998</v>
+        <f t="shared" si="5"/>
+        <v>3.6125000000000018E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
-        <v>3.262499999999996E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.3874999999999997E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
-        <v>4.1624999999999968E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.6874999999999973E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>9.4624999999999959E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3125000000000007E-2</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C31">
-        <f t="shared" si="3"/>
-        <v>-8.3750000000000213E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.4874999999999972E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>4.9624999999999975E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.5874999999999999E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>4.0624999999999967E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.1875000000000004E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>2.9624999999999957E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.2874999999999996E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>4.9624999999999975E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.7874999999999983E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>2.9624999999999957E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.0874999999999995E-2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>8.3625000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.8750000000000209E-3</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0.11262499999999998</v>
+        <f t="shared" si="5"/>
+        <v>4.0125000000000022E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
-        <v>1.9625000000000004E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.8875000000000002E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="3"/>
-        <v>4.462499999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.2874999999999979E-2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>9.1624999999999956E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.1125000000000005E-2</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C32">
-        <f t="shared" si="3"/>
-        <v>-3.3750000000000169E-3</v>
+        <f t="shared" si="5"/>
+        <v>-8.7500000000007017E-4</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>3.5624999999999962E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.8874999999999993E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>4.5624999999999971E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.6875000000000009E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>3.362499999999996E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.3874999999999997E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>6.1624999999999985E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.5874999999999981E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
-        <v>3.362499999999996E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.2874999999999996E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>7.2624999999999995E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.8750000000000164E-3</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
-        <v>0.15062499999999995</v>
+        <f t="shared" si="5"/>
+        <v>4.3125000000000024E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
-        <v>3.262499999999996E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0875000000000004E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="3"/>
-        <v>4.8624999999999974E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.2874999999999979E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>8.6625000000000008E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.7125000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C33">
-        <f t="shared" si="3"/>
-        <v>-3.3750000000000169E-3</v>
+        <f t="shared" si="5"/>
+        <v>-5.8750000000000191E-3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>2.6624999999999954E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.7874999999999983E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>6.1624999999999985E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.5874999999999999E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>4.5624999999999971E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.4874999999999998E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
-        <v>6.3624999999999987E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.9874999999999985E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>4.0624999999999967E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.8874999999999993E-2</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>7.4624999999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1249999999999871E-3</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0.12962499999999999</v>
+        <f t="shared" si="5"/>
+        <v>3.2125000000000015E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
-        <v>1.4624999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.8875000000000002E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="3"/>
-        <v>5.0624999999999976E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.8874999999999975E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>8.4625000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>2.0125000000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>-3.3750000000000169E-3</v>
+        <f t="shared" si="5"/>
+        <v>-8.8749999999999662E-3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>2.9624999999999957E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.2874999999999996E-2</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>7.4624999999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.3875000000000006E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>6.9624999999999992E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.3874999999999988E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>6.2624999999999986E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.2874999999999979E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>6.0624999999999984E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.387499999999998E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>7.8625E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.124999999999988E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
-        <v>0.138625</v>
+        <f t="shared" si="5"/>
+        <v>4.912500000000003E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
-        <v>2.5625000000000009E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.4874999999999989E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="3"/>
-        <v>6.1624999999999985E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.8750000000000182E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>9.2624999999999957E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.0125000000000013E-2</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>1.6249999999999876E-3</v>
+        <f t="shared" si="5"/>
+        <v>-8.7500000000001465E-4</v>
+      </c>
+      <c r="D35" s="60">
+        <f t="shared" ref="D35:M35" si="6">D26-AVERAGE($C$20:$C$27)</f>
+        <v>-1.0875000000000079E-2</v>
+      </c>
+      <c r="E35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.387499999999998E-2</v>
+      </c>
+      <c r="F35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.9874999999999985E-2</v>
+      </c>
+      <c r="G35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.487499999999998E-2</v>
+      </c>
+      <c r="H35" s="61">
+        <f t="shared" si="6"/>
+        <v>-3.1874999999999987E-2</v>
+      </c>
+      <c r="I35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.8874999999999984E-2</v>
+      </c>
+      <c r="J35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.1874999999999978E-2</v>
+      </c>
+      <c r="K35" s="61">
+        <f t="shared" si="6"/>
+        <v>-2.2874999999999979E-2</v>
+      </c>
+      <c r="L35" s="61">
+        <f t="shared" si="6"/>
+        <v>-1.1874999999999969E-2</v>
+      </c>
+      <c r="M35" s="61">
+        <f t="shared" si="6"/>
+        <v>1.2124999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>1.5625E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.9125000000000003E-2</v>
+      </c>
+      <c r="D36" s="62">
+        <f t="shared" ref="D36:M36" si="7">D27-AVERAGE($C$20:$C$27)</f>
+        <v>-1.1875000000000024E-2</v>
+      </c>
+      <c r="E36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.387499999999998E-2</v>
+      </c>
+      <c r="F36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.487499999999998E-2</v>
+      </c>
+      <c r="G36" s="63">
+        <f t="shared" si="7"/>
+        <v>-1.7874999999999974E-2</v>
+      </c>
+      <c r="H36" s="63">
+        <f t="shared" si="7"/>
+        <v>-8.8750000000000218E-3</v>
+      </c>
+      <c r="I36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.1874999999999978E-2</v>
+      </c>
+      <c r="J36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.2874999999999979E-2</v>
+      </c>
+      <c r="K36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.5874999999999981E-2</v>
+      </c>
+      <c r="L36" s="63">
+        <f t="shared" si="7"/>
+        <v>-2.1874999999999978E-2</v>
+      </c>
+      <c r="M36" s="63">
+        <f t="shared" si="7"/>
+        <v>1.2499999999998623E-4</v>
       </c>
     </row>
   </sheetData>
@@ -4132,1398 +5845,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:M16">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:M34">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B9E824-2ED6-41FE-B971-32656C8B9C59}">
-  <dimension ref="B1:O36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.69140625" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" style="6" customWidth="1"/>
-    <col min="3" max="13" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5">
-        <v>490</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.307</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.312</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.39</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0.309</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C4" s="7">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.312</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.311</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C5" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.315</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.309</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C6" s="7">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.307</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.314</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.318</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.376</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="7">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.309</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.318</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D8">
-        <v>0.47</v>
-      </c>
-      <c r="E8">
-        <v>0.33</v>
-      </c>
-      <c r="F8">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="K8">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="M8">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="23">
-        <v>0.373</v>
-      </c>
-      <c r="D9">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E9">
-        <v>0.33</v>
-      </c>
-      <c r="F9">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.36</v>
-      </c>
-      <c r="I9">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="K9">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="L9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="M9">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
-        <v>630</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F11" s="14">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H11" s="14">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I11" s="14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J11" s="14">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K11" s="14">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L11" s="14">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M11" s="15">
-        <v>3.9E-2</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C12" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M12" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C13" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M13" s="9">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C14" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C15" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J15" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K15" s="8">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="L15" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="K16" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L16" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M16" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L17" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L18">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M18">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f>C2-C11</f>
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:M20" si="0">D2-D11</f>
-        <v>0.28300000000000003</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.28700000000000003</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0.308</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0.28700000000000003</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0.378</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0.28500000000000003</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0.313</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>0.35700000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C21">
-        <f t="shared" ref="C21:M27" si="1">C3-C12</f>
-        <v>0.30500000000000005</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0.30400000000000005</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0.35200000000000004</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>0.29900000000000004</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>0.30100000000000005</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0.308</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>0.35600000000000004</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>0.29300000000000004</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>0.31499999999999995</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0.313</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>0.35900000000000004</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>0.29300000000000004</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>0.31</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0.317</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0.34800000000000003</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.30700000000000005</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0.28200000000000003</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0.29300000000000004</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0.318</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0.36500000000000005</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>0.311</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0.34600000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>0.315</v>
-      </c>
-      <c r="D26" s="24">
-        <f t="shared" ref="D26:M26" si="2">D8-D17</f>
-        <v>0.30499999999999994</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.29100000000000004</v>
-      </c>
-      <c r="H26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.28400000000000003</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.28700000000000003</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.29400000000000004</v>
-      </c>
-      <c r="K26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.29300000000000004</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.30400000000000005</v>
-      </c>
-      <c r="M26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" ref="D27:M27" si="3">D9-D18</f>
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>0.29100000000000004</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>0.29800000000000004</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>0.307</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>0.29400000000000004</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>0.29300000000000004</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="3"/>
-        <v>0.29400000000000004</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f>C20-AVERAGE($C$20:$C$27)</f>
-        <v>2.3125000000000007E-2</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ref="D29:M29" si="4">D20-AVERAGE($C$20:$C$27)</f>
-        <v>-3.2874999999999988E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="4"/>
-        <v>-4.2874999999999996E-2</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>-2.8874999999999984E-2</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>-7.8750000000000209E-3</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
-        <v>-2.8874999999999984E-2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>3.1249999999999889E-3</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>6.2124999999999986E-2</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>-3.0874999999999986E-2</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="4"/>
-        <v>-2.8750000000000164E-3</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="4"/>
-        <v>4.1125000000000023E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C30">
-        <f t="shared" ref="C30:M36" si="5">C21-AVERAGE($C$20:$C$27)</f>
-        <v>-1.0874999999999968E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
-        <v>-5.0875000000000004E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>-4.6875E-2</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>-4.4874999999999998E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>-2.7874999999999983E-2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>-3.9874999999999994E-2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="5"/>
-        <v>-1.1874999999999969E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>3.6125000000000018E-2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>-4.3874999999999997E-2</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>-1.6874999999999973E-2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>2.3125000000000007E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C31">
-        <f t="shared" si="5"/>
-        <v>-1.4874999999999972E-2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>-4.5874999999999999E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="5"/>
-        <v>-5.1875000000000004E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>-4.2874999999999996E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>-2.7874999999999983E-2</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>-4.0874999999999995E-2</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="5"/>
-        <v>-7.8750000000000209E-3</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
-        <v>4.0125000000000022E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>-4.8875000000000002E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>-2.2874999999999979E-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="5"/>
-        <v>2.1125000000000005E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C32">
-        <f t="shared" si="5"/>
-        <v>-8.7500000000007017E-4</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>-3.8874999999999993E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="5"/>
-        <v>-5.6875000000000009E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>-4.3874999999999997E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>-2.5874999999999981E-2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>-4.2874999999999996E-2</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="5"/>
-        <v>-2.8750000000000164E-3</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>4.3125000000000024E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>-5.0875000000000004E-2</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>-2.2874999999999979E-2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="5"/>
-        <v>1.7125000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C33">
-        <f t="shared" si="5"/>
-        <v>-5.8750000000000191E-3</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>-2.7874999999999983E-2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>-4.5874999999999999E-2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>-4.4874999999999998E-2</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>-2.9874999999999985E-2</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>-3.8874999999999993E-2</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
-        <v>1.1249999999999871E-3</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>3.2125000000000015E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>-4.8875000000000002E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>-1.8874999999999975E-2</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="5"/>
-        <v>2.0125000000000004E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C34">
-        <f t="shared" si="5"/>
-        <v>-8.8749999999999662E-3</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
-        <v>-4.2874999999999996E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="5"/>
-        <v>-5.3875000000000006E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="5"/>
-        <v>-3.3874999999999988E-2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>-2.2874999999999979E-2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>-2.387499999999998E-2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="5"/>
-        <v>2.124999999999988E-3</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>4.912500000000003E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
-        <v>-3.4874999999999989E-2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>-4.8750000000000182E-3</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="5"/>
-        <v>3.0125000000000013E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C35">
-        <f t="shared" si="5"/>
-        <v>-8.7500000000001465E-4</v>
-      </c>
-      <c r="D35" s="24">
-        <f t="shared" ref="D35:M35" si="6">D26-AVERAGE($C$20:$C$27)</f>
-        <v>-1.0875000000000079E-2</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.387499999999998E-2</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.9874999999999985E-2</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.487499999999998E-2</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="6"/>
-        <v>-3.1874999999999987E-2</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.8874999999999984E-2</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.1874999999999978E-2</v>
-      </c>
-      <c r="K35" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.2874999999999979E-2</v>
-      </c>
-      <c r="L35" s="25">
-        <f t="shared" si="6"/>
-        <v>-1.1874999999999969E-2</v>
-      </c>
-      <c r="M35" s="25">
-        <f t="shared" si="6"/>
-        <v>1.2124999999999997E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C36">
-        <f t="shared" si="5"/>
-        <v>1.9125000000000003E-2</v>
-      </c>
-      <c r="D36" s="26">
-        <f t="shared" ref="D36:M36" si="7">D27-AVERAGE($C$20:$C$27)</f>
-        <v>-1.1875000000000024E-2</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="7"/>
-        <v>-2.387499999999998E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="7"/>
-        <v>-2.487499999999998E-2</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
-        <v>-1.7874999999999974E-2</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="7"/>
-        <v>-8.8750000000000218E-3</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="7"/>
-        <v>-2.1874999999999978E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="7"/>
-        <v>-2.2874999999999979E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="7"/>
-        <v>-2.5874999999999981E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="7"/>
-        <v>-2.1874999999999978E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="7"/>
-        <v>1.2499999999998623E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C8:C9 C17:C18">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:M16">
-    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5555,39 +5876,39 @@
     <col min="2" max="2" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -9178,4 +9499,1084 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB5B07-2C62-407D-998B-3C85DEE01623}">
+  <dimension ref="B1:V44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.765625" customWidth="1"/>
+    <col min="3" max="3" width="18.07421875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="7.53515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.3828125" customWidth="1"/>
+    <col min="8" max="8" width="5.3828125" customWidth="1"/>
+    <col min="9" max="9" width="3.921875" customWidth="1"/>
+    <col min="18" max="18" width="7.765625" customWidth="1"/>
+    <col min="21" max="21" width="5.4609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F4">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="25">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F5">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="25">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F6">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="25">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F7">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="25">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F8">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="25">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F9">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="25">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F10">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="25">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F11">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="25">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F12">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="34">
+        <v>100</v>
+      </c>
+      <c r="E13" s="21">
+        <v>-1.2890289527172199E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>-6.9674698704401197E-2</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3.2044078995661002E-2</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>24</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-1.1810774727407001</v>
+      </c>
+      <c r="F14">
+        <v>-1.43485295662378</v>
+      </c>
+      <c r="G14">
+        <v>-1.0248519724788201</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>24</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="25">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>-1.0511117262490099</v>
+      </c>
+      <c r="F15">
+        <v>-1.2153363905938099</v>
+      </c>
+      <c r="G15">
+        <v>-0.83969468879674103</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="25">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>-1.2327925466281</v>
+      </c>
+      <c r="F16">
+        <v>-1.35256721893779</v>
+      </c>
+      <c r="G16">
+        <v>-1.0767589105122299</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="25">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>-1.09313631326229</v>
+      </c>
+      <c r="F17">
+        <v>-1.17714109754931</v>
+      </c>
+      <c r="G17">
+        <v>-1.00399736453579</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>24</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>-1.31192235168699</v>
+      </c>
+      <c r="F18">
+        <v>-1.4998077150317</v>
+      </c>
+      <c r="G18">
+        <v>-1.1101684535056799</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>24</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="25">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>-0.69453791248756802</v>
+      </c>
+      <c r="F19">
+        <v>-0.81193635213684101</v>
+      </c>
+      <c r="G19">
+        <v>-0.54193101131831101</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="25">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>-0.46299765821694999</v>
+      </c>
+      <c r="F20">
+        <v>-0.57420999357466096</v>
+      </c>
+      <c r="G20">
+        <v>-0.29523404387184499</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>24</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="25">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>-1.2536576037142699</v>
+      </c>
+      <c r="F21">
+        <v>-1.5771274769569501</v>
+      </c>
+      <c r="G21">
+        <v>-0.85094931469576796</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="25">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>-1.00340935059486</v>
+      </c>
+      <c r="F22">
+        <v>-1.1237618590190099</v>
+      </c>
+      <c r="G22">
+        <v>-0.773950649452535</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="20">
+        <v>24</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="34">
+        <v>100</v>
+      </c>
+      <c r="E23" s="21">
+        <v>-0.75524871570728502</v>
+      </c>
+      <c r="F23" s="21">
+        <v>-0.90857834596282405</v>
+      </c>
+      <c r="G23" s="21">
+        <v>-0.57888080312887202</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="35">
+        <v>48</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
+        <v>-3.77161821455074</v>
+      </c>
+      <c r="F24" s="37">
+        <v>-4.0356474811850802</v>
+      </c>
+      <c r="G24" s="37">
+        <v>-3.4535325339587799</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>48</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>-3.1790303641217599</v>
+      </c>
+      <c r="F25">
+        <v>-3.5031268955131698</v>
+      </c>
+      <c r="G25">
+        <v>-2.6258356821641899</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>48</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="25">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>-3.5157372557155302</v>
+      </c>
+      <c r="F26">
+        <v>-3.9586795545307298</v>
+      </c>
+      <c r="G26">
+        <v>-2.7258892860889601</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>48</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="25">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>-2.97106778080899</v>
+      </c>
+      <c r="F27">
+        <v>-3.21442760628603</v>
+      </c>
+      <c r="G27">
+        <v>-2.8559009573532999</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>48</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="25">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>-3.6390697261179201</v>
+      </c>
+      <c r="F28">
+        <v>-3.9719679720351801</v>
+      </c>
+      <c r="G28">
+        <v>-3.2143964882098199</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>48</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="25">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>-2.5664456445816199</v>
+      </c>
+      <c r="F29">
+        <v>-2.68503147467209</v>
+      </c>
+      <c r="G29">
+        <v>-2.4107112612917798</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>48</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="25">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>-1.8266031744553799</v>
+      </c>
+      <c r="F30">
+        <v>-2.0320395076154498</v>
+      </c>
+      <c r="G30">
+        <v>-1.61260537231167</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>48</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="25">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>-4.2159193350925701</v>
+      </c>
+      <c r="F31">
+        <v>-4.5527438667105198</v>
+      </c>
+      <c r="G31">
+        <v>-3.88901904835279</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.79999999999999905</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>48</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="25">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>-3.2071734068061502</v>
+      </c>
+      <c r="F32">
+        <v>-3.4680444363577299</v>
+      </c>
+      <c r="G32">
+        <v>-2.9019789670510798</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="20">
+        <v>48</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="34">
+        <v>100</v>
+      </c>
+      <c r="E33" s="21">
+        <v>-2.3654921837165199</v>
+      </c>
+      <c r="F33" s="21">
+        <v>-2.4274968241324402</v>
+      </c>
+      <c r="G33" s="21">
+        <v>-2.3064787541610401</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>72</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <v>72</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="25">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
+        <v>72</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="25">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
+        <v>72</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="25">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="1">
+        <v>72</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="25">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>72</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="25">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>72</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="25">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>-3.4286028343784398</v>
+      </c>
+      <c r="F40">
+        <v>-3.8417982542351101</v>
+      </c>
+      <c r="G40">
+        <v>-2.8903207618667</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>72</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="25">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>72</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="25">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="39">
+        <v>72</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="40">
+        <v>100</v>
+      </c>
+      <c r="E43" s="41">
+        <v>-4.2414156421225204</v>
+      </c>
+      <c r="F43" s="41">
+        <v>-4.74939072046846</v>
+      </c>
+      <c r="G43" s="41">
+        <v>-3.4854790296937499</v>
+      </c>
+      <c r="H43" s="42">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J7:O9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>